--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f46742400e14395/Desktop/TIMES_STUDENTS_FULL/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\TIMES_STUDENTS_FULL\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E93BD330-0821-42FC-8835-1C1FAAE27D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19EAF7C-0198-45FE-8D0D-F18DDCC58B7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9299BD9-53F0-457D-9B51-620F84B31664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -2070,31 +2070,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="18" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="16" max="18" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="14" x14ac:dyDescent="0.25">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2122,7 +2122,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2140,7 +2140,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
         <f>C63</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="0">C64</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C65</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C66</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C67</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C26" si="6">C68</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2704,11 +2704,11 @@
         <v>0.9</v>
       </c>
       <c r="J16" s="64">
-        <v>51000</v>
+        <v>24500</v>
       </c>
       <c r="K16" s="64">
         <f t="shared" si="2"/>
-        <v>51000</v>
+        <v>24500</v>
       </c>
       <c r="L16" s="37">
         <v>380</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2753,11 +2753,11 @@
         <v>0.9</v>
       </c>
       <c r="J17" s="64">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="K17" s="64">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L17" s="21">
         <v>300</v>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2821,7 +2821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2870,7 +2870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -2948,12 +2948,12 @@
       <c r="I21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="58">
-        <v>3100</v>
-      </c>
-      <c r="K21" s="58">
+      <c r="J21" s="64">
+        <v>3500</v>
+      </c>
+      <c r="K21" s="64">
         <f t="shared" si="2"/>
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="L21" s="21">
         <v>70</v>
@@ -2968,7 +2968,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -2997,12 +2997,12 @@
       <c r="I22" s="38">
         <v>1</v>
       </c>
-      <c r="J22" s="58">
-        <v>4000</v>
-      </c>
-      <c r="K22" s="58">
+      <c r="J22" s="64">
+        <v>5500</v>
+      </c>
+      <c r="K22" s="64">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L22" s="37">
         <v>90</v>
@@ -3017,7 +3017,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOM</v>
@@ -3213,14 +3213,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="31" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="47" t="s">
@@ -3230,7 +3230,7 @@
       <c r="F31" s="48"/>
       <c r="G31" s="49"/>
     </row>
-    <row r="32" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="50" t="s">
         <v>1</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="51" t="str">
         <f>C84</f>
         <v>MIN_WIND-OFF</v>
@@ -3289,7 +3289,7 @@
       <c r="G34" s="53"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="55" t="str">
         <f t="shared" ref="B35:C39" si="8">C85</f>
         <v>IMP_URAN</v>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="51" t="str">
         <f t="shared" si="8"/>
         <v>MIN_GEO</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="str">
         <f t="shared" si="8"/>
         <v>MIN_BIOG-AGR</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="str">
         <f t="shared" si="8"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
         <f t="shared" si="8"/>
         <v>MIN_BIOG_LFILL</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="G39" s="37"/>
     </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="56" t="str">
         <f>C90</f>
         <v>MIN_BIOM</v>
@@ -3403,10 +3403,10 @@
       </c>
       <c r="G40" s="45"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D42" s="53"/>
     </row>
-    <row r="43" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B43" s="9" t="s">
         <v>57</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="45" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="18" t="s">
         <v>15</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
     </row>
-    <row r="46" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:24" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" ht="88" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>58</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>24</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="R48" s="28"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
         <v>24</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="R49" s="30"/>
       <c r="S49" s="30"/>
     </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
         <v>24</v>
       </c>
@@ -3786,18 +3786,18 @@
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="57" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="60" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="18" t="s">
         <v>27</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>28</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="21" t="s">
         <v>34</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>34</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
     </row>
-    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="37" t="s">
         <v>34</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="H66" s="37"/>
       <c r="I66" s="37"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>34</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>34</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>34</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
         <v>34</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>34</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
         <v>34</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>34</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="37" t="s">
         <v>34</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>34</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>34</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
         <v>34</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
         <v>34</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="46" t="s">
         <v>160</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="H83" s="46"/>
       <c r="I83" s="46"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
         <v>37</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="37" t="s">
         <v>36</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
         <v>37</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="37" t="s">
         <v>37</v>
       </c>
@@ -4393,7 +4393,7 @@
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>37</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
         <v>37</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="45" t="s">
         <v>37</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="H90" s="45"/>
       <c r="I90" s="45"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B93" s="60"/>
       <c r="C93" s="61" t="s">
         <v>81</v>
@@ -4462,7 +4462,7 @@
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
     </row>
-    <row r="94" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>1</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>38</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="E95" s="41"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="21" t="str">
         <f>C63</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4506,7 +4506,7 @@
       <c r="E96" s="21"/>
       <c r="F96" s="35"/>
     </row>
-    <row r="97" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="37" t="str">
         <f t="shared" ref="B97:B104" si="10">C64</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4520,7 +4520,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="39"/>
     </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="21" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4534,7 +4534,7 @@
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
     </row>
-    <row r="99" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="37" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="F99" s="37"/>
     </row>
-    <row r="100" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="21" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="37" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="F101" s="37"/>
     </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4590,7 +4590,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="37" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4604,7 +4604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="45" t="str">
         <f t="shared" si="10"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4628,26 +4628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4842,28 +4822,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4880,4 +4859,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>